--- a/biology/Botanique/Capsicum_frutescens/Capsicum_frutescens.xlsx
+++ b/biology/Botanique/Capsicum_frutescens/Capsicum_frutescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capsicum frutescens est un « piment de Cayenne ». Il appartient à la famille des Solanaceae et est cultivé pour ses fruits à la saveur particulièrement piquante.  Sur l'échelle de Scoville, il est noté de 30 000 jusqu'à 50 000 unités, soit le degré 8 sur 10. Il en existe plusieurs variétés, dont Capsicum frutescens tabasco qui entre dans la composition de la sauce du même nom.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Capsicum assamicum Purkayastha &amp; L. Singh[2].
-Capsicum minimum  Blanco[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Capsicum assamicum Purkayastha &amp; L. Singh.
+Capsicum minimum  Blanco.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les séparations existantes, ou non, entre les différentes appellations de Capsicum frutescens sont encore un sujet d'étude. Néanmoins il semble exister des différences suffisantes entre les variétés recouvertes par ces appellations pour les considérer comme des variétés séparées. Parmi lesquelles : 
 Piment de Cayenne
